--- a/database/seeders/data/usersSeeder.xlsx
+++ b/database/seeders/data/usersSeeder.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_B61B85B66AD7327E27146CAD939DF672717E1A2F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9D372A1-1BD7-4721-B428-305788645AA2}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedrosanchez/Documents/projects/discovery-ear/database/seeders/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E6E106-4C3B-F748-9FDE-940607AF2E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="26480" windowHeight="14200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -29,130 +34,76 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
-  <si>
-    <t>ruben.varga@campofriofg.com</t>
-  </si>
-  <si>
-    <t>t02b123r</t>
-  </si>
-  <si>
-    <t>RUBEN VARGA IZQUIERDO</t>
-  </si>
-  <si>
-    <t>luis.illana@campofriofg.com</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>b14t077x</t>
   </si>
   <si>
-    <t>LUIS ILLANA ALVAREZ</t>
-  </si>
-  <si>
-    <t>azucena.sanjurjo@campofriofg.com</t>
-  </si>
-  <si>
     <t>q18t126u</t>
   </si>
   <si>
-    <t>AZUCENA SANJURJO BLANCO</t>
-  </si>
-  <si>
-    <t>alberto.sancho@campofriofg.com</t>
-  </si>
-  <si>
     <t>e06p206r</t>
   </si>
   <si>
-    <t>ALBERTO SANCHO</t>
-  </si>
-  <si>
-    <t>sonia.otero@campofriofg.com</t>
-  </si>
-  <si>
     <t>m19l055q</t>
   </si>
   <si>
-    <t>SONIA OTERO</t>
-  </si>
-  <si>
-    <t>carmelo.ortega@campofriofg.com</t>
+    <t>marta.ramos@campofriofg.com</t>
   </si>
   <si>
     <t>i21a046x</t>
   </si>
   <si>
-    <t>CARMELO ORTEGA VILLARROEL</t>
-  </si>
-  <si>
-    <t>Roberto.delatorre@campofriofg.com</t>
-  </si>
-  <si>
-    <t>c02j082y</t>
-  </si>
-  <si>
-    <t>ROBERTO DE LA TORRE</t>
-  </si>
-  <si>
-    <t>monica.santamaria@campofriofg.com</t>
-  </si>
-  <si>
-    <t>e19k099u</t>
-  </si>
-  <si>
-    <t>MONICA SANTAMARIA UBIERNA</t>
-  </si>
-  <si>
-    <t>juanm.pineda@campofriofg.com</t>
-  </si>
-  <si>
-    <t>f21n023r</t>
-  </si>
-  <si>
-    <t>JUAN MANUEL PINEDA GOMEZ</t>
-  </si>
-  <si>
-    <t>diego.duran@campofriofg.com</t>
-  </si>
-  <si>
-    <t>k03i018v</t>
-  </si>
-  <si>
-    <t>DIEGO DURAN ROMO</t>
-  </si>
-  <si>
-    <t>javier.solana@campofriofg.com</t>
-  </si>
-  <si>
-    <t>m11k042u</t>
-  </si>
-  <si>
-    <t>JAVIER SOLANA PEREZ</t>
-  </si>
-  <si>
-    <t>lara.marquina@campofriofg.com</t>
-  </si>
-  <si>
-    <t>f21m068t</t>
-  </si>
-  <si>
-    <t>LARA MARQUINA CALLEJA</t>
-  </si>
-  <si>
-    <t>pedro.garciab@campofriofg.com</t>
-  </si>
-  <si>
-    <t>m21i063x</t>
-  </si>
-  <si>
-    <t>PEDRO GARCIA BALBAS</t>
+    <t>MARTA RAMOS ROMAN</t>
+  </si>
+  <si>
+    <t>francisco@lamas.mobi</t>
+  </si>
+  <si>
+    <t>josu_e_l@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inma.camilo@gmail.com </t>
+  </si>
+  <si>
+    <t>pablo.blanco@palbum.es</t>
+  </si>
+  <si>
+    <t>Paco Lamas</t>
+  </si>
+  <si>
+    <t>Josu  Echevarria</t>
+  </si>
+  <si>
+    <t>Inma Camilo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pablo Blanco </t>
+  </si>
+  <si>
+    <t>paola.ravina@discovery-leadership.com</t>
+  </si>
+  <si>
+    <t>secret</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>eloymayorga@gmail.com</t>
+  </si>
+  <si>
+    <t>Eloy Mayorga Sánchez</t>
+  </si>
+  <si>
+    <t>k21a326t</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -172,30 +123,26 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFC00000"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -205,171 +152,167 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF17375E"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF17375E"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF17375E"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF17375E"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -387,7 +330,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -683,160 +626,99 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="43" customWidth="1"/>
+    <col min="3" max="3" width="37.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C3" s="8" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C4" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C5" s="8" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>8</v>
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{64E7B239-B951-4671-B047-95E52FD6FEA5}"/>
+    <hyperlink ref="A4" r:id="rId1" display="mailto:pablo.blanco@palbum.es" xr:uid="{2763F326-4450-AE47-9A0F-4E798362E037}"/>
+    <hyperlink ref="A7" r:id="rId2" xr:uid="{1561C498-C741-A24B-9C7A-F8D409D26EF4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
